--- a/confirmed.xlsx
+++ b/confirmed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>Country/Region</t>
   </si>
@@ -67,9 +67,15 @@
     <t>France</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
     <t>Hong Kong</t>
   </si>
   <si>
@@ -112,12 +118,24 @@
     <t>Nepal</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
     <t>Oman</t>
   </si>
   <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
+    <t>Romania</t>
+  </si>
+  <si>
     <t>Russia</t>
   </si>
   <si>
@@ -199,9 +217,15 @@
     <t>FR</t>
   </si>
   <si>
+    <t>GE</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>GR</t>
+  </si>
+  <si>
     <t>HK</t>
   </si>
   <si>
@@ -244,12 +268,24 @@
     <t>NP</t>
   </si>
   <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>OM</t>
   </si>
   <si>
+    <t>PK</t>
+  </si>
+  <si>
     <t>PH</t>
   </si>
   <si>
+    <t>RO</t>
+  </si>
+  <si>
     <t>RU</t>
   </si>
   <si>
@@ -277,9 +313,6 @@
     <t>TH</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
     <t>AE</t>
   </si>
   <si>
@@ -328,9 +361,15 @@
     <t>https://www.countryflags.io/FR/shiny/64.png</t>
   </si>
   <si>
+    <t>https://www.countryflags.io/GE/shiny/64.png</t>
+  </si>
+  <si>
     <t>https://www.countryflags.io/DE/shiny/64.png</t>
   </si>
   <si>
+    <t>https://www.countryflags.io/GR/shiny/64.png</t>
+  </si>
+  <si>
     <t>https://www.countryflags.io/HK/shiny/64.png</t>
   </si>
   <si>
@@ -373,12 +412,24 @@
     <t>https://www.countryflags.io/NP/shiny/64.png</t>
   </si>
   <si>
+    <t>https://www.countryflags.io/MK/shiny/64.png</t>
+  </si>
+  <si>
+    <t>https://www.countryflags.io/NO/shiny/64.png</t>
+  </si>
+  <si>
     <t>https://www.countryflags.io/OM/shiny/64.png</t>
   </si>
   <si>
+    <t>https://www.countryflags.io/PK/shiny/64.png</t>
+  </si>
+  <si>
     <t>https://www.countryflags.io/PH/shiny/64.png</t>
   </si>
   <si>
+    <t>https://www.countryflags.io/RO/shiny/64.png</t>
+  </si>
+  <si>
     <t>https://www.countryflags.io/RU/shiny/64.png</t>
   </si>
   <si>
@@ -406,7 +457,7 @@
     <t>https://www.countryflags.io/TH/shiny/64.png</t>
   </si>
   <si>
-    <t>https://www.countryflags.io/GB/shiny/64.png</t>
+    <t>https://www.countryflags.io/UK/shiny/64.png</t>
   </si>
   <si>
     <t>https://www.countryflags.io/US/shiny/64.png</t>
@@ -779,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL45"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,16 +951,19 @@
       <c r="AL1" s="2">
         <v>43886</v>
       </c>
+      <c r="AM1" s="2">
+        <v>43887</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1016,16 +1070,19 @@
       <c r="AL2">
         <v>1</v>
       </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1132,16 +1189,19 @@
       <c r="AL3">
         <v>1</v>
       </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1248,16 +1308,19 @@
       <c r="AL4">
         <v>22</v>
       </c>
+      <c r="AM4">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1364,16 +1427,19 @@
       <c r="AL5">
         <v>2</v>
       </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1480,16 +1546,19 @@
       <c r="AL6">
         <v>23</v>
       </c>
+      <c r="AM6">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1596,16 +1665,19 @@
       <c r="AL7">
         <v>1</v>
       </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1712,16 +1784,19 @@
       <c r="AL8">
         <v>0</v>
       </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1828,16 +1903,19 @@
       <c r="AL9">
         <v>1</v>
       </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1944,16 +2022,19 @@
       <c r="AL10">
         <v>11</v>
       </c>
+      <c r="AM10">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2060,16 +2141,19 @@
       <c r="AL11">
         <v>0</v>
       </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2176,16 +2260,19 @@
       <c r="AL12">
         <v>1</v>
       </c>
+      <c r="AM12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2292,16 +2379,19 @@
       <c r="AL13">
         <v>1</v>
       </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2408,16 +2498,19 @@
       <c r="AL14">
         <v>1</v>
       </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2524,16 +2617,19 @@
       <c r="AL15">
         <v>14</v>
       </c>
+      <c r="AM15">
+        <v>18</v>
+      </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2554,218 +2650,224 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="N17">
         <v>8</v>
       </c>
-      <c r="I17">
-        <v>8</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17">
+      <c r="O17">
         <v>10</v>
       </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
+      <c r="P17">
         <v>12</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
+        <v>12</v>
+      </c>
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
         <v>13</v>
       </c>
-      <c r="O17">
-        <v>15</v>
-      </c>
-      <c r="P17">
-        <v>15</v>
-      </c>
-      <c r="Q17">
+      <c r="U17">
+        <v>13</v>
+      </c>
+      <c r="V17">
+        <v>14</v>
+      </c>
+      <c r="W17">
+        <v>14</v>
+      </c>
+      <c r="X17">
+        <v>16</v>
+      </c>
+      <c r="Y17">
+        <v>16</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+      <c r="AA17">
+        <v>16</v>
+      </c>
+      <c r="AB17">
+        <v>16</v>
+      </c>
+      <c r="AC17">
+        <v>16</v>
+      </c>
+      <c r="AD17">
+        <v>16</v>
+      </c>
+      <c r="AE17">
+        <v>16</v>
+      </c>
+      <c r="AF17">
+        <v>16</v>
+      </c>
+      <c r="AG17">
+        <v>16</v>
+      </c>
+      <c r="AH17">
+        <v>16</v>
+      </c>
+      <c r="AI17">
+        <v>16</v>
+      </c>
+      <c r="AJ17">
+        <v>16</v>
+      </c>
+      <c r="AK17">
+        <v>16</v>
+      </c>
+      <c r="AL17">
         <v>17</v>
       </c>
-      <c r="R17">
-        <v>21</v>
-      </c>
-      <c r="S17">
-        <v>24</v>
-      </c>
-      <c r="T17">
-        <v>25</v>
-      </c>
-      <c r="U17">
-        <v>26</v>
-      </c>
-      <c r="V17">
-        <v>29</v>
-      </c>
-      <c r="W17">
-        <v>38</v>
-      </c>
-      <c r="X17">
-        <v>49</v>
-      </c>
-      <c r="Y17">
-        <v>50</v>
-      </c>
-      <c r="Z17">
-        <v>53</v>
-      </c>
-      <c r="AA17">
-        <v>56</v>
-      </c>
-      <c r="AB17">
-        <v>56</v>
-      </c>
-      <c r="AC17">
-        <v>57</v>
-      </c>
-      <c r="AD17">
-        <v>60</v>
-      </c>
-      <c r="AE17">
-        <v>62</v>
-      </c>
-      <c r="AF17">
-        <v>63</v>
-      </c>
-      <c r="AG17">
-        <v>68</v>
-      </c>
-      <c r="AH17">
-        <v>68</v>
-      </c>
-      <c r="AI17">
-        <v>69</v>
-      </c>
-      <c r="AJ17">
-        <v>74</v>
-      </c>
-      <c r="AK17">
-        <v>79</v>
-      </c>
-      <c r="AL17">
-        <v>84</v>
+      <c r="AM17">
+        <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2792,212 +2894,218 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AF19">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="AG19">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="AH19">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="AI19">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="AJ19">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AK19">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="AL19">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="AM19">
+        <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3024,96 +3132,99 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AM20">
+        <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3200,36 +3311,39 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH21">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AJ21">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AK21">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="AM21">
+        <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3259,93 +3373,96 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>322</v>
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3363,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3438,146 +3555,152 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AM23">
+        <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AD24">
+        <v>3</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AF24">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>3</v>
+      </c>
+      <c r="AH24">
         <v>20</v>
       </c>
-      <c r="O24">
-        <v>20</v>
-      </c>
-      <c r="P24">
-        <v>20</v>
-      </c>
-      <c r="Q24">
-        <v>22</v>
-      </c>
-      <c r="R24">
-        <v>22</v>
-      </c>
-      <c r="S24">
-        <v>45</v>
-      </c>
-      <c r="T24">
-        <v>25</v>
-      </c>
-      <c r="U24">
-        <v>25</v>
-      </c>
-      <c r="V24">
-        <v>26</v>
-      </c>
-      <c r="W24">
-        <v>26</v>
-      </c>
-      <c r="X24">
-        <v>26</v>
-      </c>
-      <c r="Y24">
-        <v>28</v>
-      </c>
-      <c r="Z24">
-        <v>28</v>
-      </c>
-      <c r="AA24">
-        <v>29</v>
-      </c>
-      <c r="AB24">
-        <v>43</v>
-      </c>
-      <c r="AC24">
-        <v>59</v>
-      </c>
-      <c r="AD24">
-        <v>66</v>
-      </c>
-      <c r="AE24">
-        <v>74</v>
-      </c>
-      <c r="AF24">
-        <v>84</v>
-      </c>
-      <c r="AG24">
-        <v>94</v>
-      </c>
-      <c r="AH24">
-        <v>105</v>
-      </c>
       <c r="AI24">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="AJ24">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AK24">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="AL24">
-        <v>170</v>
+        <v>322</v>
+      </c>
+      <c r="AM24">
+        <v>453</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3595,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3679,253 +3802,262 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="AM26">
+        <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL27">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AM27">
+        <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:39">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3937,227 +4069,233 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AI28">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AK28">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AL28">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AM29">
+        <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:39">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4169,111 +4307,114 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AJ30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AK30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="AM30">
+        <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:39">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4375,21 +4516,24 @@
         <v>0</v>
       </c>
       <c r="AK31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:39">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4401,19 +4545,19 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -4425,87 +4569,90 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL32">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:39">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4535,325 +4682,334 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL33">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:39">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>91</v>
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:39">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>2</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
         <v>4</v>
       </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35">
-        <v>4</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-      <c r="M35">
-        <v>11</v>
-      </c>
-      <c r="N35">
-        <v>12</v>
-      </c>
-      <c r="O35">
-        <v>15</v>
-      </c>
-      <c r="P35">
-        <v>15</v>
-      </c>
-      <c r="Q35">
-        <v>16</v>
-      </c>
-      <c r="R35">
-        <v>19</v>
-      </c>
-      <c r="S35">
-        <v>23</v>
-      </c>
-      <c r="T35">
-        <v>24</v>
-      </c>
-      <c r="U35">
-        <v>24</v>
-      </c>
-      <c r="V35">
-        <v>25</v>
-      </c>
-      <c r="W35">
-        <v>27</v>
-      </c>
-      <c r="X35">
-        <v>28</v>
-      </c>
-      <c r="Y35">
-        <v>28</v>
-      </c>
-      <c r="Z35">
-        <v>28</v>
-      </c>
-      <c r="AA35">
-        <v>28</v>
-      </c>
-      <c r="AB35">
-        <v>28</v>
-      </c>
-      <c r="AC35">
-        <v>29</v>
-      </c>
-      <c r="AD35">
-        <v>30</v>
-      </c>
-      <c r="AE35">
-        <v>31</v>
-      </c>
-      <c r="AF35">
-        <v>31</v>
-      </c>
-      <c r="AG35">
-        <v>104</v>
-      </c>
-      <c r="AH35">
-        <v>204</v>
-      </c>
-      <c r="AI35">
-        <v>433</v>
-      </c>
-      <c r="AJ35">
-        <v>602</v>
-      </c>
-      <c r="AK35">
-        <v>833</v>
-      </c>
-      <c r="AL35">
-        <v>977</v>
-      </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4886,90 +5042,93 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:39">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4987,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -5005,87 +5164,90 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AM37">
+        <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:39">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5115,93 +5277,96 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:39">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5231,96 +5396,99 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM39">
+        <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:39">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -5338,218 +5506,224 @@
         <v>5</v>
       </c>
       <c r="J40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N40">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O40">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P40">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="R40">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="S40">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="T40">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="U40">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="V40">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="W40">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="X40">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="Y40">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Z40">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="AA40">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="AB40">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="AC40">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AD40">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="AE40">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="AF40">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="AG40">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="AH40">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AI40">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AJ40">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="AK40">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="AL40">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="AM40">
+        <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:39">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K41">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M41">
+        <v>11</v>
+      </c>
+      <c r="N41">
+        <v>12</v>
+      </c>
+      <c r="O41">
+        <v>15</v>
+      </c>
+      <c r="P41">
+        <v>15</v>
+      </c>
+      <c r="Q41">
+        <v>16</v>
+      </c>
+      <c r="R41">
         <v>19</v>
       </c>
-      <c r="N41">
-        <v>19</v>
-      </c>
-      <c r="O41">
-        <v>19</v>
-      </c>
-      <c r="P41">
-        <v>19</v>
-      </c>
-      <c r="Q41">
+      <c r="S41">
+        <v>23</v>
+      </c>
+      <c r="T41">
+        <v>24</v>
+      </c>
+      <c r="U41">
+        <v>24</v>
+      </c>
+      <c r="V41">
         <v>25</v>
       </c>
-      <c r="R41">
-        <v>25</v>
-      </c>
-      <c r="S41">
-        <v>25</v>
-      </c>
-      <c r="T41">
-        <v>25</v>
-      </c>
-      <c r="U41">
-        <v>32</v>
-      </c>
-      <c r="V41">
-        <v>32</v>
-      </c>
       <c r="W41">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="X41">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Y41">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Z41">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AA41">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AB41">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AC41">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD41">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AE41">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AF41">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AG41">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="AH41">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="AI41">
-        <v>35</v>
+        <v>433</v>
       </c>
       <c r="AJ41">
-        <v>35</v>
+        <v>602</v>
       </c>
       <c r="AK41">
-        <v>35</v>
+        <v>833</v>
       </c>
       <c r="AL41">
-        <v>37</v>
+        <v>977</v>
+      </c>
+      <c r="AM41">
+        <v>1261</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:39">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5579,209 +5753,215 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Z42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AD42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AF42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AG42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AH42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AJ42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AK42">
+        <v>2</v>
+      </c>
+      <c r="AL42">
+        <v>6</v>
+      </c>
+      <c r="AM42">
         <v>13</v>
       </c>
-      <c r="AL42">
-        <v>13</v>
-      </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:39">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AD43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AE43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AF43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AG43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AH43">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AI43">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AJ43">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AK43">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="AL43">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:39">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -5805,203 +5985,923 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AF44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AG44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AH44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI44">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AJ44">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AK44">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AL44">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:39">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>8</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <v>11</v>
+      </c>
+      <c r="R46">
+        <v>11</v>
+      </c>
+      <c r="S46">
+        <v>16</v>
+      </c>
+      <c r="T46">
+        <v>16</v>
+      </c>
+      <c r="U46">
+        <v>17</v>
+      </c>
+      <c r="V46">
+        <v>18</v>
+      </c>
+      <c r="W46">
+        <v>18</v>
+      </c>
+      <c r="X46">
+        <v>18</v>
+      </c>
+      <c r="Y46">
+        <v>18</v>
+      </c>
+      <c r="Z46">
+        <v>18</v>
+      </c>
+      <c r="AA46">
+        <v>18</v>
+      </c>
+      <c r="AB46">
+        <v>18</v>
+      </c>
+      <c r="AC46">
+        <v>20</v>
+      </c>
+      <c r="AD46">
+        <v>22</v>
+      </c>
+      <c r="AE46">
+        <v>22</v>
+      </c>
+      <c r="AF46">
+        <v>23</v>
+      </c>
+      <c r="AG46">
+        <v>24</v>
+      </c>
+      <c r="AH46">
+        <v>26</v>
+      </c>
+      <c r="AI46">
+        <v>26</v>
+      </c>
+      <c r="AJ46">
+        <v>28</v>
+      </c>
+      <c r="AK46">
+        <v>30</v>
+      </c>
+      <c r="AL46">
+        <v>31</v>
+      </c>
+      <c r="AM46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>14</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>19</v>
+      </c>
+      <c r="N47">
+        <v>19</v>
+      </c>
+      <c r="O47">
+        <v>19</v>
+      </c>
+      <c r="P47">
+        <v>19</v>
+      </c>
+      <c r="Q47">
+        <v>25</v>
+      </c>
+      <c r="R47">
+        <v>25</v>
+      </c>
+      <c r="S47">
+        <v>25</v>
+      </c>
+      <c r="T47">
+        <v>25</v>
+      </c>
+      <c r="U47">
+        <v>32</v>
+      </c>
+      <c r="V47">
+        <v>32</v>
+      </c>
+      <c r="W47">
+        <v>32</v>
+      </c>
+      <c r="X47">
+        <v>33</v>
+      </c>
+      <c r="Y47">
+        <v>33</v>
+      </c>
+      <c r="Z47">
+        <v>33</v>
+      </c>
+      <c r="AA47">
+        <v>33</v>
+      </c>
+      <c r="AB47">
+        <v>33</v>
+      </c>
+      <c r="AC47">
+        <v>34</v>
+      </c>
+      <c r="AD47">
+        <v>35</v>
+      </c>
+      <c r="AE47">
+        <v>35</v>
+      </c>
+      <c r="AF47">
+        <v>35</v>
+      </c>
+      <c r="AG47">
+        <v>35</v>
+      </c>
+      <c r="AH47">
+        <v>35</v>
+      </c>
+      <c r="AI47">
+        <v>35</v>
+      </c>
+      <c r="AJ47">
+        <v>35</v>
+      </c>
+      <c r="AK47">
+        <v>35</v>
+      </c>
+      <c r="AL47">
+        <v>37</v>
+      </c>
+      <c r="AM47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>8</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>9</v>
+      </c>
+      <c r="Z48">
+        <v>9</v>
+      </c>
+      <c r="AA48">
+        <v>9</v>
+      </c>
+      <c r="AB48">
+        <v>9</v>
+      </c>
+      <c r="AC48">
+        <v>9</v>
+      </c>
+      <c r="AD48">
+        <v>9</v>
+      </c>
+      <c r="AE48">
+        <v>9</v>
+      </c>
+      <c r="AF48">
+        <v>9</v>
+      </c>
+      <c r="AG48">
+        <v>9</v>
+      </c>
+      <c r="AH48">
+        <v>9</v>
+      </c>
+      <c r="AI48">
+        <v>9</v>
+      </c>
+      <c r="AJ48">
+        <v>9</v>
+      </c>
+      <c r="AK48">
+        <v>13</v>
+      </c>
+      <c r="AL48">
+        <v>13</v>
+      </c>
+      <c r="AM48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
         <v>6</v>
       </c>
-      <c r="O45">
+      <c r="N49">
+        <v>8</v>
+      </c>
+      <c r="O49">
+        <v>8</v>
+      </c>
+      <c r="P49">
+        <v>11</v>
+      </c>
+      <c r="Q49">
+        <v>11</v>
+      </c>
+      <c r="R49">
+        <v>12</v>
+      </c>
+      <c r="S49">
+        <v>12</v>
+      </c>
+      <c r="T49">
+        <v>12</v>
+      </c>
+      <c r="U49">
+        <v>12</v>
+      </c>
+      <c r="V49">
+        <v>12</v>
+      </c>
+      <c r="W49">
+        <v>12</v>
+      </c>
+      <c r="X49">
+        <v>13</v>
+      </c>
+      <c r="Y49">
+        <v>13</v>
+      </c>
+      <c r="Z49">
+        <v>15</v>
+      </c>
+      <c r="AA49">
+        <v>15</v>
+      </c>
+      <c r="AB49">
+        <v>15</v>
+      </c>
+      <c r="AC49">
+        <v>15</v>
+      </c>
+      <c r="AD49">
+        <v>15</v>
+      </c>
+      <c r="AE49">
+        <v>15</v>
+      </c>
+      <c r="AF49">
+        <v>15</v>
+      </c>
+      <c r="AG49">
+        <v>15</v>
+      </c>
+      <c r="AH49">
+        <v>35</v>
+      </c>
+      <c r="AI49">
+        <v>35</v>
+      </c>
+      <c r="AJ49">
+        <v>35</v>
+      </c>
+      <c r="AK49">
+        <v>53</v>
+      </c>
+      <c r="AL49">
+        <v>53</v>
+      </c>
+      <c r="AM49">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>5</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="U50">
+        <v>7</v>
+      </c>
+      <c r="V50">
+        <v>7</v>
+      </c>
+      <c r="W50">
+        <v>8</v>
+      </c>
+      <c r="X50">
+        <v>8</v>
+      </c>
+      <c r="Y50">
+        <v>8</v>
+      </c>
+      <c r="Z50">
+        <v>8</v>
+      </c>
+      <c r="AA50">
+        <v>8</v>
+      </c>
+      <c r="AB50">
+        <v>8</v>
+      </c>
+      <c r="AC50">
+        <v>9</v>
+      </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>9</v>
+      </c>
+      <c r="AF50">
+        <v>9</v>
+      </c>
+      <c r="AG50">
+        <v>9</v>
+      </c>
+      <c r="AH50">
+        <v>9</v>
+      </c>
+      <c r="AI50">
+        <v>13</v>
+      </c>
+      <c r="AJ50">
+        <v>13</v>
+      </c>
+      <c r="AK50">
+        <v>13</v>
+      </c>
+      <c r="AL50">
+        <v>13</v>
+      </c>
+      <c r="AM50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
         <v>6</v>
       </c>
-      <c r="P45">
+      <c r="O51">
+        <v>6</v>
+      </c>
+      <c r="P51">
         <v>8</v>
       </c>
-      <c r="Q45">
+      <c r="Q51">
         <v>8</v>
       </c>
-      <c r="R45">
+      <c r="R51">
         <v>8</v>
       </c>
-      <c r="S45">
+      <c r="S51">
         <v>10</v>
       </c>
-      <c r="T45">
+      <c r="T51">
         <v>10</v>
       </c>
-      <c r="U45">
+      <c r="U51">
         <v>13</v>
       </c>
-      <c r="V45">
+      <c r="V51">
         <v>13</v>
       </c>
-      <c r="W45">
+      <c r="W51">
         <v>14</v>
       </c>
-      <c r="X45">
+      <c r="X51">
         <v>15</v>
       </c>
-      <c r="Y45">
+      <c r="Y51">
         <v>15</v>
       </c>
-      <c r="Z45">
+      <c r="Z51">
         <v>16</v>
       </c>
-      <c r="AA45">
+      <c r="AA51">
         <v>16</v>
       </c>
-      <c r="AB45">
+      <c r="AB51">
         <v>16</v>
       </c>
-      <c r="AC45">
+      <c r="AC51">
         <v>16</v>
       </c>
-      <c r="AD45">
+      <c r="AD51">
         <v>16</v>
       </c>
-      <c r="AE45">
+      <c r="AE51">
         <v>16</v>
       </c>
-      <c r="AF45">
+      <c r="AF51">
         <v>16</v>
       </c>
-      <c r="AG45">
+      <c r="AG51">
         <v>16</v>
       </c>
-      <c r="AH45">
+      <c r="AH51">
         <v>16</v>
       </c>
-      <c r="AI45">
+      <c r="AI51">
         <v>16</v>
       </c>
-      <c r="AJ45">
+      <c r="AJ51">
         <v>16</v>
       </c>
-      <c r="AK45">
+      <c r="AK51">
         <v>16</v>
       </c>
-      <c r="AL45">
+      <c r="AL51">
+        <v>16</v>
+      </c>
+      <c r="AM51">
         <v>16</v>
       </c>
     </row>
@@ -6051,6 +6951,12 @@
     <hyperlink ref="C43" r:id="rId42"/>
     <hyperlink ref="C44" r:id="rId43"/>
     <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="C48" r:id="rId47"/>
+    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/confirmed.xlsx
+++ b/confirmed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="163">
   <si>
     <t>Country/Region</t>
   </si>
@@ -58,9 +58,15 @@
     <t>Croatia</t>
   </si>
   <si>
+    <t>Denmark</t>
+  </si>
+  <si>
     <t>Egypt</t>
   </si>
   <si>
+    <t>Estonia</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>Nepal</t>
   </si>
   <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
     <t>North Macedonia</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>Russia</t>
   </si>
   <si>
+    <t>San Marino</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -208,9 +220,15 @@
     <t>HR</t>
   </si>
   <si>
+    <t>DK</t>
+  </si>
+  <si>
     <t>EG</t>
   </si>
   <si>
+    <t>EE</t>
+  </si>
+  <si>
     <t>FI</t>
   </si>
   <si>
@@ -268,6 +286,9 @@
     <t>NP</t>
   </si>
   <si>
+    <t>NL</t>
+  </si>
+  <si>
     <t>MK</t>
   </si>
   <si>
@@ -289,6 +310,9 @@
     <t>RU</t>
   </si>
   <si>
+    <t>SM</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
@@ -352,9 +376,15 @@
     <t>https://www.countryflags.io/HR/shiny/64.png</t>
   </si>
   <si>
+    <t>https://www.countryflags.io/DK/shiny/64.png</t>
+  </si>
+  <si>
     <t>https://www.countryflags.io/EG/shiny/64.png</t>
   </si>
   <si>
+    <t>https://www.countryflags.io/EE/shiny/64.png</t>
+  </si>
+  <si>
     <t>https://www.countryflags.io/FI/shiny/64.png</t>
   </si>
   <si>
@@ -412,6 +442,9 @@
     <t>https://www.countryflags.io/NP/shiny/64.png</t>
   </si>
   <si>
+    <t>https://www.countryflags.io/NL/shiny/64.png</t>
+  </si>
+  <si>
     <t>https://www.countryflags.io/MK/shiny/64.png</t>
   </si>
   <si>
@@ -431,6 +464,9 @@
   </si>
   <si>
     <t>https://www.countryflags.io/RU/shiny/64.png</t>
+  </si>
+  <si>
+    <t>https://www.countryflags.io/SM/shiny/64.png</t>
   </si>
   <si>
     <t>https://www.countryflags.io/SG/shiny/64.png</t>
@@ -830,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,16 +990,19 @@
       <c r="AM1" s="2">
         <v>43887</v>
       </c>
+      <c r="AN1" s="2">
+        <v>43888</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1073,16 +1112,19 @@
       <c r="AM2">
         <v>1</v>
       </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1192,16 +1234,19 @@
       <c r="AM3">
         <v>1</v>
       </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1311,16 +1356,19 @@
       <c r="AM4">
         <v>22</v>
       </c>
+      <c r="AN4">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1430,16 +1478,19 @@
       <c r="AM5">
         <v>2</v>
       </c>
+      <c r="AN5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1549,16 +1600,19 @@
       <c r="AM6">
         <v>33</v>
       </c>
+      <c r="AN6">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1668,16 +1722,19 @@
       <c r="AM7">
         <v>1</v>
       </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1787,16 +1844,19 @@
       <c r="AM8">
         <v>1</v>
       </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1906,16 +1966,19 @@
       <c r="AM9">
         <v>1</v>
       </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2025,16 +2088,19 @@
       <c r="AM10">
         <v>11</v>
       </c>
+      <c r="AN10">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2144,16 +2210,19 @@
       <c r="AM11">
         <v>0</v>
       </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2263,16 +2332,19 @@
       <c r="AM12">
         <v>3</v>
       </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2344,54 +2416,57 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2415,52 +2490,52 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>1</v>
@@ -2499,18 +2574,21 @@
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2519,117 +2597,120 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2653,102 +2734,105 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AN16">
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:40">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2757,117 +2841,120 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>4</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>5</v>
       </c>
       <c r="N17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>6</v>
+      </c>
+      <c r="U17">
+        <v>11</v>
+      </c>
+      <c r="V17">
+        <v>11</v>
+      </c>
+      <c r="W17">
+        <v>11</v>
+      </c>
+      <c r="X17">
+        <v>11</v>
+      </c>
+      <c r="Y17">
+        <v>11</v>
+      </c>
+      <c r="Z17">
+        <v>11</v>
+      </c>
+      <c r="AA17">
+        <v>11</v>
+      </c>
+      <c r="AB17">
         <v>12</v>
       </c>
-      <c r="Q17">
+      <c r="AC17">
         <v>12</v>
       </c>
-      <c r="R17">
+      <c r="AD17">
         <v>12</v>
       </c>
-      <c r="S17">
+      <c r="AE17">
         <v>12</v>
       </c>
-      <c r="T17">
-        <v>13</v>
-      </c>
-      <c r="U17">
-        <v>13</v>
-      </c>
-      <c r="V17">
+      <c r="AF17">
+        <v>12</v>
+      </c>
+      <c r="AG17">
+        <v>12</v>
+      </c>
+      <c r="AH17">
+        <v>12</v>
+      </c>
+      <c r="AI17">
+        <v>12</v>
+      </c>
+      <c r="AJ17">
+        <v>12</v>
+      </c>
+      <c r="AK17">
+        <v>12</v>
+      </c>
+      <c r="AL17">
         <v>14</v>
       </c>
-      <c r="W17">
-        <v>14</v>
-      </c>
-      <c r="X17">
-        <v>16</v>
-      </c>
-      <c r="Y17">
-        <v>16</v>
-      </c>
-      <c r="Z17">
-        <v>16</v>
-      </c>
-      <c r="AA17">
-        <v>16</v>
-      </c>
-      <c r="AB17">
-        <v>16</v>
-      </c>
-      <c r="AC17">
-        <v>16</v>
-      </c>
-      <c r="AD17">
-        <v>16</v>
-      </c>
-      <c r="AE17">
-        <v>16</v>
-      </c>
-      <c r="AF17">
-        <v>16</v>
-      </c>
-      <c r="AG17">
-        <v>16</v>
-      </c>
-      <c r="AH17">
-        <v>16</v>
-      </c>
-      <c r="AI17">
-        <v>16</v>
-      </c>
-      <c r="AJ17">
-        <v>16</v>
-      </c>
-      <c r="AK17">
-        <v>16</v>
-      </c>
-      <c r="AL17">
-        <v>17</v>
-      </c>
       <c r="AM17">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="AN17">
+        <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:40">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2977,135 +3064,141 @@
       <c r="AM18">
         <v>1</v>
       </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:40">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="N19">
         <v>8</v>
       </c>
-      <c r="I19">
-        <v>8</v>
-      </c>
-      <c r="J19">
-        <v>8</v>
-      </c>
-      <c r="K19">
+      <c r="O19">
         <v>10</v>
       </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
+      <c r="P19">
         <v>12</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>12</v>
+      </c>
+      <c r="S19">
+        <v>12</v>
+      </c>
+      <c r="T19">
         <v>13</v>
       </c>
-      <c r="O19">
-        <v>15</v>
-      </c>
-      <c r="P19">
-        <v>15</v>
-      </c>
-      <c r="Q19">
+      <c r="U19">
+        <v>13</v>
+      </c>
+      <c r="V19">
+        <v>14</v>
+      </c>
+      <c r="W19">
+        <v>14</v>
+      </c>
+      <c r="X19">
+        <v>16</v>
+      </c>
+      <c r="Y19">
+        <v>16</v>
+      </c>
+      <c r="Z19">
+        <v>16</v>
+      </c>
+      <c r="AA19">
+        <v>16</v>
+      </c>
+      <c r="AB19">
+        <v>16</v>
+      </c>
+      <c r="AC19">
+        <v>16</v>
+      </c>
+      <c r="AD19">
+        <v>16</v>
+      </c>
+      <c r="AE19">
+        <v>16</v>
+      </c>
+      <c r="AF19">
+        <v>16</v>
+      </c>
+      <c r="AG19">
+        <v>16</v>
+      </c>
+      <c r="AH19">
+        <v>16</v>
+      </c>
+      <c r="AI19">
+        <v>16</v>
+      </c>
+      <c r="AJ19">
+        <v>16</v>
+      </c>
+      <c r="AK19">
+        <v>16</v>
+      </c>
+      <c r="AL19">
         <v>17</v>
       </c>
-      <c r="R19">
-        <v>21</v>
-      </c>
-      <c r="S19">
-        <v>24</v>
-      </c>
-      <c r="T19">
-        <v>25</v>
-      </c>
-      <c r="U19">
-        <v>26</v>
-      </c>
-      <c r="V19">
-        <v>29</v>
-      </c>
-      <c r="W19">
-        <v>38</v>
-      </c>
-      <c r="X19">
-        <v>49</v>
-      </c>
-      <c r="Y19">
-        <v>50</v>
-      </c>
-      <c r="Z19">
-        <v>53</v>
-      </c>
-      <c r="AA19">
-        <v>56</v>
-      </c>
-      <c r="AB19">
-        <v>56</v>
-      </c>
-      <c r="AC19">
-        <v>57</v>
-      </c>
-      <c r="AD19">
-        <v>60</v>
-      </c>
-      <c r="AE19">
-        <v>62</v>
-      </c>
-      <c r="AF19">
-        <v>63</v>
-      </c>
-      <c r="AG19">
-        <v>68</v>
-      </c>
-      <c r="AH19">
-        <v>68</v>
-      </c>
-      <c r="AI19">
-        <v>69</v>
-      </c>
-      <c r="AJ19">
-        <v>74</v>
-      </c>
-      <c r="AK19">
-        <v>79</v>
-      </c>
-      <c r="AL19">
-        <v>84</v>
-      </c>
       <c r="AM19">
-        <v>91</v>
+        <v>27</v>
+      </c>
+      <c r="AN19">
+        <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:40">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3132,218 +3225,224 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:40">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="AG21">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="AH21">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="AI21">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="AJ21">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AK21">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="AL21">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AM21">
-        <v>139</v>
+        <v>91</v>
+      </c>
+      <c r="AN21">
+        <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:40">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3370,99 +3469,102 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM22">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:40">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3549,39 +3651,42 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH23">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AJ23">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AK23">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>139</v>
+      </c>
+      <c r="AN23">
+        <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:40">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3611,96 +3716,99 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>229</v>
+        <v>1</v>
       </c>
       <c r="AL24">
-        <v>322</v>
+        <v>1</v>
       </c>
       <c r="AM24">
-        <v>453</v>
+        <v>5</v>
+      </c>
+      <c r="AN24">
+        <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:40">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3718,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3793,152 +3901,158 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:40">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
+        <v>3</v>
+      </c>
+      <c r="AE26">
+        <v>3</v>
+      </c>
+      <c r="AF26">
+        <v>3</v>
+      </c>
+      <c r="AG26">
+        <v>3</v>
+      </c>
+      <c r="AH26">
         <v>20</v>
       </c>
-      <c r="O26">
-        <v>20</v>
-      </c>
-      <c r="P26">
-        <v>20</v>
-      </c>
-      <c r="Q26">
-        <v>22</v>
-      </c>
-      <c r="R26">
-        <v>22</v>
-      </c>
-      <c r="S26">
-        <v>45</v>
-      </c>
-      <c r="T26">
-        <v>25</v>
-      </c>
-      <c r="U26">
-        <v>25</v>
-      </c>
-      <c r="V26">
-        <v>26</v>
-      </c>
-      <c r="W26">
-        <v>26</v>
-      </c>
-      <c r="X26">
-        <v>26</v>
-      </c>
-      <c r="Y26">
-        <v>28</v>
-      </c>
-      <c r="Z26">
-        <v>28</v>
-      </c>
-      <c r="AA26">
-        <v>29</v>
-      </c>
-      <c r="AB26">
-        <v>43</v>
-      </c>
-      <c r="AC26">
-        <v>59</v>
-      </c>
-      <c r="AD26">
-        <v>66</v>
-      </c>
-      <c r="AE26">
-        <v>74</v>
-      </c>
-      <c r="AF26">
-        <v>84</v>
-      </c>
-      <c r="AG26">
-        <v>94</v>
-      </c>
-      <c r="AH26">
-        <v>105</v>
-      </c>
       <c r="AI26">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="AJ26">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="AK26">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="AL26">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="AM26">
-        <v>189</v>
+        <v>453</v>
+      </c>
+      <c r="AN26">
+        <v>655</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:40">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3956,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4040,262 +4154,271 @@
         <v>0</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:40">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AH28">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="AJ28">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="AK28">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="AM28">
-        <v>2</v>
+        <v>189</v>
+      </c>
+      <c r="AN28">
+        <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:40">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="AN29">
+        <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:40">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4307,233 +4430,239 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AK30">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AM30">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:40">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AN31">
+        <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:40">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4545,114 +4674,117 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AE32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AG32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AJ32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AK32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AM32">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="AN32">
+        <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:40">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4760,18 +4892,21 @@
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:40">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4783,114 +4918,117 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>1</v>
       </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:40">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4992,24 +5130,27 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:40">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5117,18 +5258,21 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:40">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5155,99 +5299,102 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:40">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5349,24 +5496,27 @@
         <v>0</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM38">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AN38">
+        <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:40">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5396,334 +5546,343 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>2</v>
       </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:40">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="V40">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="W40">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="X40">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="Y40">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Z40">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="AA40">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="AB40">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="AC40">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="AD40">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="AE40">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="AF40">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="AG40">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="AH40">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="AI40">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="AJ40">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="AK40">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="AL40">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="AM40">
-        <v>93</v>
+        <v>3</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:40">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="AL41">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="AM41">
-        <v>1261</v>
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:40">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5753,31 +5912,31 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42">
         <v>2</v>
@@ -5828,21 +5987,24 @@
         <v>2</v>
       </c>
       <c r="AL42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AM42">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:40">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5860,584 +6022,599 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:40">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="Y44">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="AD44">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="AE44">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="AF44">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="AG44">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="AH44">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="AJ44">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="AK44">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="AM44">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="AN44">
+        <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:40">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>977</v>
       </c>
       <c r="AM45">
-        <v>1</v>
+        <v>1261</v>
+      </c>
+      <c r="AN45">
+        <v>1766</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:40">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S46">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="X46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Y46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Z46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AA46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AB46">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AC46">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AD46">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AE46">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AF46">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AG46">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AH46">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AI46">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AJ46">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AK46">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AL46">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="AM46">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="AN46">
+        <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:40">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="W47">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AD47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AE47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AF47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AG47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AH47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AI47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AJ47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AK47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AL47">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="AM47">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:40">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6467,441 +6644,941 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AF48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AG48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AH48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AK48">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AL48">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AM48">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="AN48">
+        <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:40">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
         <v>8</v>
       </c>
-      <c r="O49">
-        <v>8</v>
-      </c>
-      <c r="P49">
-        <v>11</v>
-      </c>
-      <c r="Q49">
-        <v>11</v>
-      </c>
-      <c r="R49">
-        <v>12</v>
-      </c>
-      <c r="S49">
-        <v>12</v>
-      </c>
-      <c r="T49">
-        <v>12</v>
-      </c>
-      <c r="U49">
-        <v>12</v>
-      </c>
-      <c r="V49">
-        <v>12</v>
-      </c>
-      <c r="W49">
-        <v>12</v>
-      </c>
-      <c r="X49">
-        <v>13</v>
-      </c>
-      <c r="Y49">
-        <v>13</v>
-      </c>
-      <c r="Z49">
-        <v>15</v>
-      </c>
-      <c r="AA49">
-        <v>15</v>
-      </c>
-      <c r="AB49">
-        <v>15</v>
-      </c>
-      <c r="AC49">
-        <v>15</v>
-      </c>
-      <c r="AD49">
-        <v>15</v>
-      </c>
-      <c r="AE49">
-        <v>15</v>
-      </c>
-      <c r="AF49">
-        <v>15</v>
-      </c>
-      <c r="AG49">
-        <v>15</v>
-      </c>
-      <c r="AH49">
-        <v>35</v>
-      </c>
-      <c r="AI49">
-        <v>35</v>
-      </c>
-      <c r="AJ49">
-        <v>35</v>
-      </c>
-      <c r="AK49">
-        <v>53</v>
-      </c>
-      <c r="AL49">
-        <v>53</v>
-      </c>
-      <c r="AM49">
-        <v>59</v>
-      </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:40">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T50">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="U50">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="V50">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="W50">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="X50">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Y50">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z50">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AA50">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AB50">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AC50">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AD50">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AE50">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AF50">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AG50">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AH50">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AI50">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AJ50">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AK50">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AL50">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AM50">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="AN50">
+        <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:40">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N51">
+        <v>19</v>
+      </c>
+      <c r="O51">
+        <v>19</v>
+      </c>
+      <c r="P51">
+        <v>19</v>
+      </c>
+      <c r="Q51">
+        <v>25</v>
+      </c>
+      <c r="R51">
+        <v>25</v>
+      </c>
+      <c r="S51">
+        <v>25</v>
+      </c>
+      <c r="T51">
+        <v>25</v>
+      </c>
+      <c r="U51">
+        <v>32</v>
+      </c>
+      <c r="V51">
+        <v>32</v>
+      </c>
+      <c r="W51">
+        <v>32</v>
+      </c>
+      <c r="X51">
+        <v>33</v>
+      </c>
+      <c r="Y51">
+        <v>33</v>
+      </c>
+      <c r="Z51">
+        <v>33</v>
+      </c>
+      <c r="AA51">
+        <v>33</v>
+      </c>
+      <c r="AB51">
+        <v>33</v>
+      </c>
+      <c r="AC51">
+        <v>34</v>
+      </c>
+      <c r="AD51">
+        <v>35</v>
+      </c>
+      <c r="AE51">
+        <v>35</v>
+      </c>
+      <c r="AF51">
+        <v>35</v>
+      </c>
+      <c r="AG51">
+        <v>35</v>
+      </c>
+      <c r="AH51">
+        <v>35</v>
+      </c>
+      <c r="AI51">
+        <v>35</v>
+      </c>
+      <c r="AJ51">
+        <v>35</v>
+      </c>
+      <c r="AK51">
+        <v>35</v>
+      </c>
+      <c r="AL51">
+        <v>37</v>
+      </c>
+      <c r="AM51">
+        <v>40</v>
+      </c>
+      <c r="AN51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>8</v>
+      </c>
+      <c r="X52">
+        <v>8</v>
+      </c>
+      <c r="Y52">
+        <v>9</v>
+      </c>
+      <c r="Z52">
+        <v>9</v>
+      </c>
+      <c r="AA52">
+        <v>9</v>
+      </c>
+      <c r="AB52">
+        <v>9</v>
+      </c>
+      <c r="AC52">
+        <v>9</v>
+      </c>
+      <c r="AD52">
+        <v>9</v>
+      </c>
+      <c r="AE52">
+        <v>9</v>
+      </c>
+      <c r="AF52">
+        <v>9</v>
+      </c>
+      <c r="AG52">
+        <v>9</v>
+      </c>
+      <c r="AH52">
+        <v>9</v>
+      </c>
+      <c r="AI52">
+        <v>9</v>
+      </c>
+      <c r="AJ52">
+        <v>9</v>
+      </c>
+      <c r="AK52">
+        <v>13</v>
+      </c>
+      <c r="AL52">
+        <v>13</v>
+      </c>
+      <c r="AM52">
+        <v>13</v>
+      </c>
+      <c r="AN52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
         <v>6</v>
       </c>
-      <c r="O51">
+      <c r="N53">
+        <v>8</v>
+      </c>
+      <c r="O53">
+        <v>8</v>
+      </c>
+      <c r="P53">
+        <v>11</v>
+      </c>
+      <c r="Q53">
+        <v>11</v>
+      </c>
+      <c r="R53">
+        <v>12</v>
+      </c>
+      <c r="S53">
+        <v>12</v>
+      </c>
+      <c r="T53">
+        <v>12</v>
+      </c>
+      <c r="U53">
+        <v>12</v>
+      </c>
+      <c r="V53">
+        <v>12</v>
+      </c>
+      <c r="W53">
+        <v>12</v>
+      </c>
+      <c r="X53">
+        <v>13</v>
+      </c>
+      <c r="Y53">
+        <v>13</v>
+      </c>
+      <c r="Z53">
+        <v>15</v>
+      </c>
+      <c r="AA53">
+        <v>15</v>
+      </c>
+      <c r="AB53">
+        <v>15</v>
+      </c>
+      <c r="AC53">
+        <v>15</v>
+      </c>
+      <c r="AD53">
+        <v>15</v>
+      </c>
+      <c r="AE53">
+        <v>15</v>
+      </c>
+      <c r="AF53">
+        <v>15</v>
+      </c>
+      <c r="AG53">
+        <v>15</v>
+      </c>
+      <c r="AH53">
+        <v>35</v>
+      </c>
+      <c r="AI53">
+        <v>35</v>
+      </c>
+      <c r="AJ53">
+        <v>35</v>
+      </c>
+      <c r="AK53">
+        <v>53</v>
+      </c>
+      <c r="AL53">
+        <v>53</v>
+      </c>
+      <c r="AM53">
+        <v>59</v>
+      </c>
+      <c r="AN53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>7</v>
+      </c>
+      <c r="V54">
+        <v>7</v>
+      </c>
+      <c r="W54">
+        <v>8</v>
+      </c>
+      <c r="X54">
+        <v>8</v>
+      </c>
+      <c r="Y54">
+        <v>8</v>
+      </c>
+      <c r="Z54">
+        <v>8</v>
+      </c>
+      <c r="AA54">
+        <v>8</v>
+      </c>
+      <c r="AB54">
+        <v>8</v>
+      </c>
+      <c r="AC54">
+        <v>9</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>9</v>
+      </c>
+      <c r="AF54">
+        <v>9</v>
+      </c>
+      <c r="AG54">
+        <v>9</v>
+      </c>
+      <c r="AH54">
+        <v>9</v>
+      </c>
+      <c r="AI54">
+        <v>13</v>
+      </c>
+      <c r="AJ54">
+        <v>13</v>
+      </c>
+      <c r="AK54">
+        <v>13</v>
+      </c>
+      <c r="AL54">
+        <v>13</v>
+      </c>
+      <c r="AM54">
+        <v>13</v>
+      </c>
+      <c r="AN54">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
         <v>6</v>
       </c>
-      <c r="P51">
+      <c r="O55">
+        <v>6</v>
+      </c>
+      <c r="P55">
         <v>8</v>
       </c>
-      <c r="Q51">
+      <c r="Q55">
         <v>8</v>
       </c>
-      <c r="R51">
+      <c r="R55">
         <v>8</v>
       </c>
-      <c r="S51">
+      <c r="S55">
         <v>10</v>
       </c>
-      <c r="T51">
+      <c r="T55">
         <v>10</v>
       </c>
-      <c r="U51">
+      <c r="U55">
         <v>13</v>
       </c>
-      <c r="V51">
+      <c r="V55">
         <v>13</v>
       </c>
-      <c r="W51">
+      <c r="W55">
         <v>14</v>
       </c>
-      <c r="X51">
+      <c r="X55">
         <v>15</v>
       </c>
-      <c r="Y51">
+      <c r="Y55">
         <v>15</v>
       </c>
-      <c r="Z51">
+      <c r="Z55">
         <v>16</v>
       </c>
-      <c r="AA51">
+      <c r="AA55">
         <v>16</v>
       </c>
-      <c r="AB51">
+      <c r="AB55">
         <v>16</v>
       </c>
-      <c r="AC51">
+      <c r="AC55">
         <v>16</v>
       </c>
-      <c r="AD51">
+      <c r="AD55">
         <v>16</v>
       </c>
-      <c r="AE51">
+      <c r="AE55">
         <v>16</v>
       </c>
-      <c r="AF51">
+      <c r="AF55">
         <v>16</v>
       </c>
-      <c r="AG51">
+      <c r="AG55">
         <v>16</v>
       </c>
-      <c r="AH51">
+      <c r="AH55">
         <v>16</v>
       </c>
-      <c r="AI51">
+      <c r="AI55">
         <v>16</v>
       </c>
-      <c r="AJ51">
+      <c r="AJ55">
         <v>16</v>
       </c>
-      <c r="AK51">
+      <c r="AK55">
         <v>16</v>
       </c>
-      <c r="AL51">
+      <c r="AL55">
         <v>16</v>
       </c>
-      <c r="AM51">
+      <c r="AM55">
+        <v>16</v>
+      </c>
+      <c r="AN55">
         <v>16</v>
       </c>
     </row>
@@ -6957,6 +7634,10 @@
     <hyperlink ref="C49" r:id="rId48"/>
     <hyperlink ref="C50" r:id="rId49"/>
     <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C52" r:id="rId51"/>
+    <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C54" r:id="rId53"/>
+    <hyperlink ref="C55" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
